--- a/Calibration Spreadsheets/CalibrationSheets.xlsx
+++ b/Calibration Spreadsheets/CalibrationSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomlo\Desktop\University\2021 Semester 1\MECHENG706\Project 1\Github\Ettubrute\Calibration Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14C7E37-ED77-4E35-84CB-365BF137DB50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E078F8D3-C002-4756-9EF6-25D5470262DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3548" windowWidth="15390" windowHeight="9532" xr2:uid="{F52116EF-746C-4BF7-AC66-FB8EB401951A}"/>
+    <workbookView xWindow="5130" yWindow="3038" windowWidth="15390" windowHeight="9532" xr2:uid="{F52116EF-746C-4BF7-AC66-FB8EB401951A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1568,43 +1568,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="4">
-                  <c:v>584</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>582</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>501</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>431</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>371</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>325</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>258</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>189</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>166</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>150</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>126</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>113</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,43 +2161,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="4">
-                  <c:v>549</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>592</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>501</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>426</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>362</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>316</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>248</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>178</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>150</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>133</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>105</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3870,40 +3870,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>582</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>431</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>371</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>325</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>258</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>218</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>189</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>166</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>113</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4467,40 +4467,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>592</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>426</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>362</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>316</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>248</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>178</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>150</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>133</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>105</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9966,8 +9966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A14806-71D5-4F3E-AB66-420B63075A71}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10081,10 +10081,10 @@
         <v>108</v>
       </c>
       <c r="F7">
-        <v>584</v>
+        <v>364</v>
       </c>
       <c r="G7">
-        <v>549</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -10103,10 +10103,10 @@
         <v>118</v>
       </c>
       <c r="F8">
-        <v>582</v>
+        <v>320</v>
       </c>
       <c r="G8">
-        <v>592</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -10128,10 +10128,10 @@
         <v>128</v>
       </c>
       <c r="F9">
-        <v>501</v>
+        <v>278</v>
       </c>
       <c r="G9">
-        <v>501</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -10150,10 +10150,10 @@
         <v>138</v>
       </c>
       <c r="F10">
-        <v>431</v>
+        <v>251</v>
       </c>
       <c r="G10">
-        <v>426</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -10175,10 +10175,10 @@
         <v>148</v>
       </c>
       <c r="F11">
-        <v>371</v>
+        <v>233</v>
       </c>
       <c r="G11">
-        <v>362</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -10197,10 +10197,10 @@
         <v>158</v>
       </c>
       <c r="F12">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="G12">
-        <v>316</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -10238,10 +10238,10 @@
         <v>178</v>
       </c>
       <c r="F14">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="G14">
-        <v>248</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -10279,10 +10279,10 @@
         <v>198</v>
       </c>
       <c r="F16">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="G16">
-        <v>209</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -10320,10 +10320,10 @@
         <v>218</v>
       </c>
       <c r="F18">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="G18">
-        <v>178</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -10361,10 +10361,10 @@
         <v>238</v>
       </c>
       <c r="F20">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -10402,10 +10402,10 @@
         <v>258</v>
       </c>
       <c r="F22">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="G22">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -10459,10 +10459,10 @@
         <v>288</v>
       </c>
       <c r="F25">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G25">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -10500,10 +10500,10 @@
         <v>308</v>
       </c>
       <c r="F27">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G27">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">

--- a/Calibration Spreadsheets/CalibrationSheets.xlsx
+++ b/Calibration Spreadsheets/CalibrationSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomlo\Desktop\University\2021 Semester 1\MECHENG706\Project 1\Github\Ettubrute\Calibration Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E078F8D3-C002-4756-9EF6-25D5470262DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E79C3B2-2D04-4E2E-80A4-BFECC0AF8D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3038" windowWidth="15390" windowHeight="9532" xr2:uid="{F52116EF-746C-4BF7-AC66-FB8EB401951A}"/>
+    <workbookView xWindow="8333" yWindow="3375" windowWidth="15390" windowHeight="9533" xr2:uid="{F52116EF-746C-4BF7-AC66-FB8EB401951A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>LR IR FL</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ir3ADC = analogRead(irSensor3);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ir3val = 0 - pow(ir3ADC, 3) * 0.00005 + pow(ir3ADC, 2) * 0.022 - ir3ADC * 6.3307 + 711.9;//new calibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ir4ADC = analogRead(irSensor4);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ir4val = 0 - pow(ir4ADC, 3) * 0.00001 + pow(ir4ADC, 2) * 0.0124 - ir4ADC * 3.74 + 481.21;//new calibration</t>
   </si>
 </sst>
 </file>
@@ -1568,43 +1580,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="4">
-                  <c:v>364</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>278</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>251</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>233</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>212</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>197</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>178</c:v>
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>154</c:v>
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>142</c:v>
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>122</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>118</c:v>
+                </c:pt>
                 <c:pt idx="22">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>105</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,43 +2197,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="4">
-                  <c:v>356</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>270</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>237</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>216</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>195</c:v>
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>166</c:v>
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>142</c:v>
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>126</c:v>
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109</c:v>
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>96</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
                 <c:pt idx="22">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3833,6 +3893,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.3507306120623977"/>
+                  <c:y val="-0.33453758626907404"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3865,137 +3931,152 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$30</c:f>
+              <c:f>Sheet1!$F$7:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>320</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>278</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>251</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>178</c:v>
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>154</c:v>
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>142</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>105</c:v>
+                <c:pt idx="20">
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$30</c:f>
+              <c:f>Sheet1!$E$7:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>178</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>188</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>198</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>208</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>218</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>228</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>238</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>248</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>258</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>268</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>278</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>288</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>458</c:v>
                 </c:pt>
               </c:numCache>
@@ -4024,7 +4105,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700"/>
-          <c:min val="100"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4430,6 +4511,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.30148724210898709"/>
+                  <c:y val="-0.22328681977715031"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4462,137 +4549,152 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$8:$G$30</c:f>
+              <c:f>Sheet1!$G$7:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>309</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>237</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195</c:v>
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>166</c:v>
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>142</c:v>
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126</c:v>
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109</c:v>
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>77</c:v>
+                <c:pt idx="20">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$30</c:f>
+              <c:f>Sheet1!$E$7:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>178</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>188</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>198</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>208</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>218</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>228</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>238</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>248</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>258</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>268</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>278</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>288</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>458</c:v>
                 </c:pt>
               </c:numCache>
@@ -9964,10 +10066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A14806-71D5-4F3E-AB66-420B63075A71}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="O23" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10009,11 +10111,11 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <f>A3+109</f>
+        <f t="shared" ref="B3:B30" si="0">A3+109</f>
         <v>119</v>
       </c>
       <c r="E3">
-        <f>A3+58</f>
+        <f t="shared" ref="E3:E30" si="1">A3+58</f>
         <v>68</v>
       </c>
     </row>
@@ -10022,11 +10124,11 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <f>A4+109</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="E4">
-        <f>A4+58</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
@@ -10035,7 +10137,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <f>A5+109</f>
+        <f t="shared" si="0"/>
         <v>139</v>
       </c>
       <c r="C5">
@@ -10045,7 +10147,7 @@
         <v>422</v>
       </c>
       <c r="E5">
-        <f>A5+58</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -10054,11 +10156,11 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <f>A6+109</f>
+        <f t="shared" si="0"/>
         <v>149</v>
       </c>
       <c r="E6">
-        <f>A6+58</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
@@ -10067,7 +10169,7 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <f>A7+109</f>
+        <f t="shared" si="0"/>
         <v>159</v>
       </c>
       <c r="C7">
@@ -10077,14 +10179,14 @@
         <v>586</v>
       </c>
       <c r="E7">
-        <f>A7+58</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="F7">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G7">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -10092,18 +10194,18 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <f>A8+109</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="C8">
         <v>630</v>
       </c>
       <c r="E8">
-        <f>A8+58</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="F8">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G8">
         <v>309</v>
@@ -10114,7 +10216,7 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <f>A9+109</f>
+        <f t="shared" si="0"/>
         <v>179</v>
       </c>
       <c r="C9">
@@ -10124,14 +10226,14 @@
         <v>635</v>
       </c>
       <c r="E9">
-        <f>A9+58</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="F9">
+        <v>286</v>
+      </c>
+      <c r="G9">
         <v>278</v>
-      </c>
-      <c r="G9">
-        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -10139,21 +10241,21 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <f>A10+109</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="C10">
         <v>620</v>
       </c>
       <c r="E10">
-        <f>A10+58</f>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="F10">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G10">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -10161,7 +10263,7 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <f>A11+109</f>
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
       <c r="C11">
@@ -10171,14 +10273,14 @@
         <v>594</v>
       </c>
       <c r="E11">
-        <f>A11+58</f>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="F11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G11">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -10186,21 +10288,21 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <f>A12+109</f>
+        <f t="shared" si="0"/>
         <v>209</v>
       </c>
       <c r="C12">
         <v>550</v>
       </c>
       <c r="E12">
-        <f>A12+58</f>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
       <c r="F12">
         <v>212</v>
       </c>
       <c r="G12">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -10208,7 +10310,7 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <f>A13+109</f>
+        <f t="shared" si="0"/>
         <v>219</v>
       </c>
       <c r="C13">
@@ -10218,8 +10320,14 @@
         <v>495</v>
       </c>
       <c r="E13">
-        <f>A13+58</f>
+        <f t="shared" si="1"/>
         <v>168</v>
+      </c>
+      <c r="F13">
+        <v>197</v>
+      </c>
+      <c r="G13">
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -10227,21 +10335,21 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <f>A14+109</f>
+        <f t="shared" si="0"/>
         <v>229</v>
       </c>
       <c r="C14">
         <v>465</v>
       </c>
       <c r="E14">
-        <f>A14+58</f>
+        <f t="shared" si="1"/>
         <v>178</v>
       </c>
       <c r="F14">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G14">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -10249,7 +10357,7 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <f>A15+109</f>
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
       <c r="C15">
@@ -10259,8 +10367,14 @@
         <v>423</v>
       </c>
       <c r="E15">
-        <f>A15+58</f>
+        <f t="shared" si="1"/>
         <v>188</v>
+      </c>
+      <c r="F15">
+        <v>170</v>
+      </c>
+      <c r="G15">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -10268,21 +10382,21 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <f>A16+109</f>
+        <f t="shared" si="0"/>
         <v>249</v>
       </c>
       <c r="C16">
         <v>390</v>
       </c>
       <c r="E16">
-        <f>A16+58</f>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
       <c r="F16">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G16">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -10290,7 +10404,7 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <f>A17+109</f>
+        <f t="shared" si="0"/>
         <v>259</v>
       </c>
       <c r="C17">
@@ -10300,8 +10414,14 @@
         <v>360</v>
       </c>
       <c r="E17">
-        <f>A17+58</f>
+        <f t="shared" si="1"/>
         <v>208</v>
+      </c>
+      <c r="F17">
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -10309,21 +10429,21 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <f>A18+109</f>
+        <f t="shared" si="0"/>
         <v>269</v>
       </c>
       <c r="C18">
         <v>335</v>
       </c>
       <c r="E18">
-        <f>A18+58</f>
+        <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="F18">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G18">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -10331,7 +10451,7 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <f>A19+109</f>
+        <f t="shared" si="0"/>
         <v>279</v>
       </c>
       <c r="C19">
@@ -10341,8 +10461,14 @@
         <v>320</v>
       </c>
       <c r="E19">
-        <f>A19+58</f>
+        <f t="shared" si="1"/>
         <v>228</v>
+      </c>
+      <c r="F19">
+        <v>138</v>
+      </c>
+      <c r="G19">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -10350,7 +10476,7 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <f>A20+109</f>
+        <f t="shared" si="0"/>
         <v>289</v>
       </c>
       <c r="C20">
@@ -10361,10 +10487,10 @@
         <v>238</v>
       </c>
       <c r="F20">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G20">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -10372,7 +10498,7 @@
         <v>190</v>
       </c>
       <c r="B21">
-        <f>A21+109</f>
+        <f t="shared" si="0"/>
         <v>299</v>
       </c>
       <c r="C21">
@@ -10382,8 +10508,14 @@
         <v>289</v>
       </c>
       <c r="E21">
-        <f>A21+58</f>
+        <f t="shared" si="1"/>
         <v>248</v>
+      </c>
+      <c r="F21">
+        <v>130</v>
+      </c>
+      <c r="G21">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -10391,21 +10523,21 @@
         <v>200</v>
       </c>
       <c r="B22">
-        <f>A22+109</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="C22">
         <v>268</v>
       </c>
       <c r="E22">
-        <f>A22+58</f>
+        <f t="shared" si="1"/>
         <v>258</v>
       </c>
       <c r="F22">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G22">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -10413,15 +10545,21 @@
         <v>210</v>
       </c>
       <c r="B23">
-        <f>A23+109</f>
+        <f t="shared" si="0"/>
         <v>319</v>
       </c>
       <c r="C23">
         <v>255</v>
       </c>
       <c r="E23">
-        <f>A23+58</f>
+        <f t="shared" si="1"/>
         <v>268</v>
+      </c>
+      <c r="F23">
+        <v>122</v>
+      </c>
+      <c r="G23">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -10429,7 +10567,7 @@
         <v>220</v>
       </c>
       <c r="B24">
-        <f>A24+109</f>
+        <f t="shared" si="0"/>
         <v>329</v>
       </c>
       <c r="C24">
@@ -10439,8 +10577,14 @@
         <v>255</v>
       </c>
       <c r="E24">
-        <f>A24+58</f>
+        <f t="shared" si="1"/>
         <v>278</v>
+      </c>
+      <c r="F24">
+        <v>118</v>
+      </c>
+      <c r="G24">
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -10448,21 +10592,21 @@
         <v>230</v>
       </c>
       <c r="B25">
-        <f>A25+109</f>
+        <f t="shared" si="0"/>
         <v>339</v>
       </c>
       <c r="C25">
         <v>232</v>
       </c>
       <c r="E25">
-        <f>A25+58</f>
+        <f t="shared" si="1"/>
         <v>288</v>
       </c>
       <c r="F25">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G25">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -10470,15 +10614,21 @@
         <v>240</v>
       </c>
       <c r="B26">
-        <f>A26+109</f>
+        <f t="shared" si="0"/>
         <v>349</v>
       </c>
       <c r="C26">
         <v>225</v>
       </c>
       <c r="E26">
-        <f>A26+58</f>
+        <f t="shared" si="1"/>
         <v>298</v>
+      </c>
+      <c r="F26">
+        <v>110</v>
+      </c>
+      <c r="G26">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -10486,7 +10636,7 @@
         <v>250</v>
       </c>
       <c r="B27">
-        <f>A27+109</f>
+        <f t="shared" si="0"/>
         <v>359</v>
       </c>
       <c r="C27">
@@ -10496,14 +10646,14 @@
         <v>230</v>
       </c>
       <c r="E27">
-        <f>A27+58</f>
+        <f t="shared" si="1"/>
         <v>308</v>
       </c>
       <c r="F27">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G27">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -10511,11 +10661,11 @@
         <v>300</v>
       </c>
       <c r="B28">
-        <f>A28+109</f>
+        <f t="shared" si="0"/>
         <v>409</v>
       </c>
       <c r="E28">
-        <f>A28+58</f>
+        <f t="shared" si="1"/>
         <v>358</v>
       </c>
     </row>
@@ -10524,11 +10674,11 @@
         <v>350</v>
       </c>
       <c r="B29">
-        <f>A29+109</f>
+        <f t="shared" si="0"/>
         <v>459</v>
       </c>
       <c r="E29">
-        <f>A29+58</f>
+        <f t="shared" si="1"/>
         <v>408</v>
       </c>
     </row>
@@ -10537,12 +10687,32 @@
         <v>400</v>
       </c>
       <c r="B30">
-        <f>A30+109</f>
+        <f t="shared" si="0"/>
         <v>509</v>
       </c>
       <c r="E30">
-        <f>A30+58</f>
+        <f t="shared" si="1"/>
         <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.45">
+      <c r="M83" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
